--- a/Happle Mind/TestscriptManager/TestscriptManager.xlsx
+++ b/Happle Mind/TestscriptManager/TestscriptManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11025" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11025" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Set 1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Set 2 Test scenario 5</t>
   </si>
   <si>
-    <t>Set 1 Test case 1</t>
-  </si>
-  <si>
     <t>Set 1 Test case 2</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Set 1 Test scenario 5</t>
+  </si>
+  <si>
+    <t>TC1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -508,13 +508,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Happle Mind/TestscriptManager/TestscriptManager.xlsx
+++ b/Happle Mind/TestscriptManager/TestscriptManager.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11025" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11025" windowHeight="6090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Set 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Set 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Set1" sheetId="1" r:id="rId1"/>
+    <sheet name="Set2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Happle Mind/TestscriptManager/TestscriptManager.xlsx
+++ b/Happle Mind/TestscriptManager/TestscriptManager.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -35,15 +35,9 @@
     <t>Set 2 Test case 2</t>
   </si>
   <si>
-    <t>Set 2 Test case 3</t>
-  </si>
-  <si>
     <t>Set 2 Test case 4</t>
   </si>
   <si>
-    <t>Set 2 Test case 5</t>
-  </si>
-  <si>
     <t>Set 2 Test scenario 1</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>Set 2 Test scenario 5</t>
   </si>
   <si>
-    <t>Set 1 Test case 2</t>
-  </si>
-  <si>
     <t>Set 1 Test case 3</t>
   </si>
   <si>
@@ -86,7 +77,10 @@
     <t>Set 1 Test scenario 5</t>
   </si>
   <si>
-    <t>TC1</t>
+    <t>@Scenario1</t>
+  </si>
+  <si>
+    <t>@Scenario2</t>
   </si>
 </sst>
 </file>
@@ -136,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +443,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,28 +474,28 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -522,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -536,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -560,7 +555,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -609,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -619,14 +614,14 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -647,14 +642,14 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
